--- a/downloads/IndividualFireflies.xlsx
+++ b/downloads/IndividualFireflies.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="IndividualFireflies copy.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="29">
   <si>
     <t>Serial Number</t>
   </si>
@@ -58,16 +58,80 @@
   </si>
   <si>
     <t>Ford Foundation</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Hospital</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laos Friends </t>
+  </si>
+  <si>
+    <t>Mahosot</t>
+  </si>
+  <si>
+    <t>Boston Children's</t>
+  </si>
+  <si>
+    <t>Apollo Gleneagles</t>
+  </si>
+  <si>
+    <t>Atlantis</t>
+  </si>
+  <si>
+    <t>Soni</t>
+  </si>
+  <si>
+    <t>Children's Investment Fund Foundation</t>
+  </si>
+  <si>
+    <t>Usage in Past Month</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -90,14 +154,186 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="87">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -427,244 +663,1153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>614160</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
         <v>88</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="1">
+        <v>39907</v>
+      </c>
+      <c r="G2">
+        <v>234</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>640042</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1">
+      <c r="D3">
+        <v>88</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1">
         <v>39907</v>
       </c>
-      <c r="F2">
+      <c r="G3">
         <v>234</v>
       </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>910383</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1">
+        <v>39907</v>
+      </c>
+      <c r="G4">
+        <v>345</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>578456</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>88</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1">
+        <v>39907</v>
+      </c>
+      <c r="G5">
+        <v>923</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>951008</v>
       </c>
-      <c r="B3">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6">
         <v>88</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F6" s="1">
+        <v>39417</v>
+      </c>
+      <c r="G6">
+        <v>123</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>411723</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1">
-        <v>39910</v>
-      </c>
-      <c r="F3">
+      <c r="D7">
+        <v>60</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1">
+        <v>39420</v>
+      </c>
+      <c r="G7">
+        <v>234</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>512405</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1">
+        <v>39420</v>
+      </c>
+      <c r="G8">
+        <v>567</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>569341</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>60</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1">
+        <v>39420</v>
+      </c>
+      <c r="G9">
         <v>123</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>729176</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>60</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1">
+        <v>39420</v>
+      </c>
+      <c r="G10">
+        <v>123</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>560461</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1">
+        <v>40408</v>
+      </c>
+      <c r="G11">
+        <v>595</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>658590</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="1">
+        <v>40408</v>
+      </c>
+      <c r="G12">
+        <v>416</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>888820</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="1">
+        <v>40408</v>
+      </c>
+      <c r="G13">
+        <v>771</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>835417</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="1">
+        <v>40410</v>
+      </c>
+      <c r="G14">
+        <v>704</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>120105</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="1">
+        <v>40413</v>
+      </c>
+      <c r="G15">
+        <v>501</v>
+      </c>
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>726641</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="1">
+        <v>40686</v>
+      </c>
+      <c r="G16">
+        <v>753</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>885586</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17">
+        <v>53</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="1">
+        <v>40686</v>
+      </c>
+      <c r="G17">
+        <v>483</v>
+      </c>
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>921101</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="1">
+        <v>40426</v>
+      </c>
+      <c r="G18">
+        <v>514</v>
+      </c>
+      <c r="H18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>781806</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19">
+        <v>32</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="1">
+        <v>40426</v>
+      </c>
+      <c r="G19">
+        <v>819</v>
+      </c>
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>521476</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20">
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="1">
+        <v>40426</v>
+      </c>
+      <c r="G20">
+        <v>112</v>
+      </c>
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>183182</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21">
+        <v>32</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="1">
+        <v>40426</v>
+      </c>
+      <c r="G21">
+        <v>169</v>
+      </c>
+      <c r="H21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>149838</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22">
+        <v>68</v>
+      </c>
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="1">
+        <v>40453</v>
+      </c>
+      <c r="G22">
+        <v>395</v>
+      </c>
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>433191</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23">
+        <v>68</v>
+      </c>
+      <c r="E23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="1">
+        <v>40453</v>
+      </c>
+      <c r="G23">
+        <v>543</v>
+      </c>
+      <c r="H23" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>300407</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <v>68</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="1">
+        <v>40453</v>
+      </c>
+      <c r="G24">
+        <v>824</v>
+      </c>
+      <c r="H24" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>207585</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>45</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="1">
+        <v>39725</v>
+      </c>
+      <c r="G25">
+        <v>859</v>
+      </c>
+      <c r="H25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>375774</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26">
+        <v>45</v>
+      </c>
+      <c r="E26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="1">
+        <v>39725</v>
+      </c>
+      <c r="G26">
+        <v>912</v>
+      </c>
+      <c r="H26" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>594099</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27">
+        <v>45</v>
+      </c>
+      <c r="E27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="1">
+        <v>39725</v>
+      </c>
+      <c r="G27">
+        <v>118</v>
+      </c>
+      <c r="H27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
+        <v>695383</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28">
+        <v>31</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="1">
+        <v>39725</v>
+      </c>
+      <c r="G28">
+        <v>764</v>
+      </c>
+      <c r="H28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
+        <v>403810</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29">
+        <v>31</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="1">
+        <v>39725</v>
+      </c>
+      <c r="G29">
+        <v>238</v>
+      </c>
+      <c r="H29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
+        <v>679796</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30">
+        <v>31</v>
+      </c>
+      <c r="E30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="1">
+        <v>39725</v>
+      </c>
+      <c r="G30">
+        <v>629</v>
+      </c>
+      <c r="H30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
+        <v>590980</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31">
+        <v>17</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="1">
+        <v>39726</v>
+      </c>
+      <c r="G31">
+        <v>539</v>
+      </c>
+      <c r="H31" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
+        <v>934255</v>
+      </c>
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32">
+        <v>17</v>
+      </c>
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="1">
+        <v>39726</v>
+      </c>
+      <c r="G32">
+        <v>498</v>
+      </c>
+      <c r="H32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
+        <v>328871</v>
+      </c>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33">
+        <v>18</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="1">
+        <v>39726</v>
+      </c>
+      <c r="G33">
+        <v>767</v>
+      </c>
+      <c r="H33" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
+        <v>208316</v>
+      </c>
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34">
+        <v>18</v>
+      </c>
+      <c r="E34" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="1">
+        <v>39726</v>
+      </c>
+      <c r="G34">
+        <v>271</v>
+      </c>
+      <c r="H34" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>407094</v>
+      </c>
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35">
+        <v>23</v>
+      </c>
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="1">
+        <v>40211</v>
+      </c>
+      <c r="G35">
+        <v>732</v>
+      </c>
+      <c r="H35" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
+        <v>340929</v>
+      </c>
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36">
+        <v>23</v>
+      </c>
+      <c r="E36" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="1">
+        <v>40211</v>
+      </c>
+      <c r="G36">
+        <v>109</v>
+      </c>
+      <c r="H36" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
+        <v>964903</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37">
+        <v>23</v>
+      </c>
+      <c r="E37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="1">
+        <v>40211</v>
+      </c>
+      <c r="G37">
+        <v>331</v>
+      </c>
+      <c r="H37" t="s">
+        <v>9</v>
+      </c>
+      <c r="I37">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
+        <v>346985</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38">
+        <v>23</v>
+      </c>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="1">
+        <v>40211</v>
+      </c>
+      <c r="G38">
+        <v>907</v>
+      </c>
+      <c r="H38" t="s">
+        <v>9</v>
+      </c>
+      <c r="I38">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
+        <v>851052</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39">
+        <v>23</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="1">
+        <v>40211</v>
+      </c>
+      <c r="G39">
+        <v>250</v>
+      </c>
+      <c r="H39" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39">
         <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>411723</v>
-      </c>
-      <c r="B4">
-        <v>60</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>39420</v>
-      </c>
-      <c r="F4">
-        <v>234</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>640042</v>
-      </c>
-      <c r="B5">
-        <v>88</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1">
-        <v>39907</v>
-      </c>
-      <c r="F5">
-        <v>234</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>512405</v>
-      </c>
-      <c r="B6">
-        <v>60</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>39420</v>
-      </c>
-      <c r="F6">
-        <v>567</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>91083</v>
-      </c>
-      <c r="B7">
-        <v>60</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1">
-        <v>39907</v>
-      </c>
-      <c r="F7">
-        <v>345</v>
-      </c>
-      <c r="G7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>569341</v>
-      </c>
-      <c r="B8">
-        <v>60</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>39420</v>
-      </c>
-      <c r="F8">
-        <v>123</v>
-      </c>
-      <c r="G8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>729176</v>
-      </c>
-      <c r="B9">
-        <v>60</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1">
-        <v>39420</v>
-      </c>
-      <c r="F9">
-        <v>123</v>
-      </c>
-      <c r="G9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>578456</v>
-      </c>
-      <c r="B10">
-        <v>88</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="1">
-        <v>39907</v>
-      </c>
-      <c r="F10">
-        <v>923</v>
-      </c>
-      <c r="G10" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
